--- a/db/TGN-3201-TainanSightseeing-01.xlsx
+++ b/db/TGN-3201-TainanSightseeing-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-Islands/file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-Tainan/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99A204A-30EC-FB49-9AE0-809C8CF8C9C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D668460-BCEE-B344-8ADF-E73E870A4272}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="1340" windowWidth="32220" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="17820" yWindow="4040" windowWidth="32220" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="197">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -549,6 +549,282 @@
   </si>
   <si>
     <t>後壁區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>神農街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>從清朝時代起就是台南五條港區域的重要河港入口，當時的商賈都從這條街上進出台南，是當時最熱鬧的的區域，歷史有趣的地方又來了，經過百年演變，原本的河港現在成為都市裡的道路。
+原本已經因為老舊而沒落的街道，近幾年成為文創藝術的集散地，台南人有時會戲稱神農街為文青聖地，街道兩旁的店都充斥濃濃的手作風格，而且為了維持原創性，大多數店家內都不可以拍照，請多留意店家的規範，因為神農街內的每家小店舖絕對值得每個來台南的人好好細細的看一回，絕對不只是在街上走一趟就過了，一定要進每家店看看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 小時營業</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺南市中西區神農街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>fig/ISL-3104-TainanGuide-18.jpeg</t>
+  </si>
+  <si>
+    <t>fig/ISL-3104-TainanGuide-19.jpeg</t>
+  </si>
+  <si>
+    <t>fig/ISL-3104-TainanGuide-20.jpeg</t>
+  </si>
+  <si>
+    <t>fig/ISL-3104-TainanGuide-21.jpeg</t>
+  </si>
+  <si>
+    <t>fig/ISL-3104-TainanGuide-22.jpeg</t>
+  </si>
+  <si>
+    <t>fig/ISL-3104-TainanGuide-17.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>https://www.twtainan.net/zh-tw/attractions/detail/1351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林百貨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.hayashi.com.tw/page.asp?nsub=A8A000&amp;lang=C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林百貨(ハヤシ百貨)台南人俗稱五棧樓仔(Gō͘-chàn-lâu-á)，是日本山口縣人林方一投資，1931年由當時任臺南州地方技師兼臺灣建築會臺南州支部長的梅澤捨次郎設計，屬末廣町「店鋪住宅速成會」街屋中最大的一間，1932年完工落成，12月5日開幕，投資人林方一卻不幸在開幕前因病過世，林百貨僅比全台第一家百貨公司菊元(台北，建築已拆除)晚一週開幕。
+1945年太平洋戰爭結束，林百貨因為鄰近市區政經中心因而受到轟炸波及，戰後數年，改制後的台灣製鹽總廠(後改為台鹽實業)與「鹽務警察」共用林百貨做為辦公處所，頂樓則作為防空戰備之用，1977年(民國66年)，鹽警因為鹽稅停徵後，鹽警改制為保三總隊，全棟大多為台鹽所使用，後來辦公處遷往健康路台鹽現址。1998年(民國87年)，林百貨才被列為市定古蹟，並於2013年中修護完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市中西區忠義路二段18-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+886-221-3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00 - 21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南文創園區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://b16tainan.com.tw/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺南市東區北門路二段16號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>886-6-222-2681</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走出台南火車站後右轉，就會見到一棟非常美麗的紅色建築在藍天底下，後方襯托著高聳的香格里拉飯店大樓，成為台南新舊融合的最佳代表景觀。此處原為台灣總督府專賣局台南支局台南出張所，整修過後成為台南文化創意產業園區，讓嚴肅的古蹟建築變身成遊客民眾的好去處。出張所本體為古色古香的展場，常有不同展覽展出，也是產業媒合及藝文人才互動交流平台，不定時舉辦各種主題講座，也讓許多親子檔常到園區裡看火車吃點心、參與DIY手作課程，度過親子時光，是一個實踐生活美學與慢活態度的絕佳場域。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有百年歷史的台南公園最為人津津樂道的就是流傳已久的燕潭曉月，形容月亮高掛天空時，猶如明月落在燕潭的倒映美景。每天從早到晚都有不少遊客在潭邊散步運動或是約會談情，假日時潭邊更是許多親子嬉戲的場所，也是攝影留念的最佳取景點，是許多台南人與遊客對台南的共同印象。
+2017年為慶祝台南公園1百周年，特地請來日本知名庭園大師修復瀑布景觀，擁有濃濃的日式風情，瀑布流水周邊有著充滿綠意的蟲鳴鳥叫，重現百年前的優雅風情，加上一旁以咾咕石為牆面，紅色屋頂與可愛圓窗造型，有如歐洲小屋的台南公園管理所，以及公園內各處繽紛的造景充滿歷史氛圍的造景，實在令人流連忘返。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南公園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+886-6-2982801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺南市北區公園路356號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.twtainan.net/zh-tw/attractions/detail/715</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>fig/ISL-3104-TainanGuide-23.jpeg</t>
+  </si>
+  <si>
+    <t>fig/ISL-3104-TainanGuide-24.jpeg</t>
+  </si>
+  <si>
+    <t>fig/ISL-3104-TainanGuide-25.jpeg</t>
+  </si>
+  <si>
+    <t>安平樹屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>樹屋位於德記洋行後面，原是德記洋行的倉庫，大約建於十九世紀末及日治初期，此處曾做為「大日本鹽業株式會社」出張所倉庫，現況規模即為日本人增建。
+經百餘年歲月滄桑後，倉庫牆面滿佈榕樹盤據的氣根，高聳的榕樹茂密的樹冠彷彿成為倉庫的屋頂，也讓安平樹屋擁有難得一見的外觀及神秘氣息，形成特有的屋樹共生奇景，類似吳哥窟大樹盤纏著「塔普倫寺」。
+現今內有規劃完善的木棧道讓人穿梭於樹屋之間，也可往上穿梭在樹冠之中，常可見許多的松鼠與鳥類在樹冠間嬉戲，生態良好。走累了就近到樹屋園區內的樹屋咖啡休息，來支冰淇淋消暑，繼續探索安平的優美。​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺南市安平區古堡街108號旁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+886-6-3913901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:30 – 17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.twtainan.net/zh-tw/attractions/detail/806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大魚的祝福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.twtainan.net/zh-tw/attractions/detail/5625</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>與林默娘公園相依，連成安平港水岸綠帶，港濱歷史公園自東入口一路向西，搭建一條歷史的時光長廊，用石碑文字訴說府城故事。這裡充斥孩童與狗兒的嘻笑歡鬧，也圍繞閱讀歷史的文人靜默，夕陽西下的景色令人陶醉，從大魚的口中，眺望澄黃沉靜的水面。
+大魚獻上的祝福
+大魚的魚腹是平滑的白色曲線，進入魚肚走上二樓，藍色三角網起的魚背籠罩眾人，向外延伸自尾鰭輕輕揚起，口中央以448片彩色釉燒玻璃拼湊出台灣島嶼，象徵愛與包容的台灣浮出水面，接納不同時代的來客。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>886-6-633-4905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.twtainan.net/zh-tw/attractions/detail/5516</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德陽艦園區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以「德陽艦」為主角的軍艦博物館，是安平港最吸睛的焦點，也是全台唯一的軍艦博物館。在台服役近30年的德陽艦，於2009年卸下保衛國家的使命，正式停泊安平海港並轉型成為賦予教育意義的軍艦博物館，不但是軍事迷的遊覽勝地，霸氣船身造型也成為知名拍照景點。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>886-6-29-32925</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00 – 18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>億載金城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>億載金城又名「二鯤鯓砲台」，是一個四方型四周有稜堡且有護城河圍繞的紅色城堡，中央處的草皮則是當時用來操練士兵的所在地，從地圖上看是一個非常勻稱的菱形設計，隨著歷史演進，億載金城已失去軍事據點的作用，轉變為相當受歡迎的景點，假日偶有穿著清兵服裝的工作人員在砲台上演練著砲操，有如時光倒流的場景讓許多遊客驚喜不已，三-四月周邊黃花風鈴木盛開時更是絕美，常可見遊客踩踏著天鵝船在護城河中緩緩前進，與生活在此的野鴨及天鵝一同在水域裡嬉戲著。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺南市安平區光州路3號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺南市安平區安億路115號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺南市安平區港濱歷史公園(安億橋邊安億路旁)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +886-6-2951504</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.twtainan.net/zh-tw/attractions/detail/673</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.twtainan.net/zh-tw/attractions/detail/810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀夕平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位於安平港國家歷史風景區內的觀夕平台是近年相當熱門的景點，三角形的平台與兩側的防風林營造出綠意盎然的景色，平台前就是湛藍的海洋美景，午後時分常見家庭帶著小孩在沙灘上玩沙放風箏，或是三兩好友捲起褲管沿著岸邊踏浪，夕陽黃昏時天空雲彩變化是最多人佇足的時候。
+觀夕平台的低光源走廊設計，讓這裡不僅白天可以欣賞海景，夜間光害少也讓天空中閃耀的點點星辰顯現出來，每當流星雨報到時也是熱門的觀星場所之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+886-6-2281382</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺南市安平區四草大橋南端步行約100M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -948,13 +1224,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1442,8 +1718,307 @@
         <v>115</v>
       </c>
     </row>
+    <row r="16" spans="1:10" ht="192">
+      <c r="A16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="240">
+      <c r="A17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="160">
+      <c r="A18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="208">
+      <c r="A19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="208">
+      <c r="A20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="176">
+      <c r="A21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="80">
+      <c r="A22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="144">
+      <c r="A23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="160">
+      <c r="A24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J16" r:id="rId1" xr:uid="{053E7FFF-82B5-9542-81E8-6E54978005B2}"/>
+    <hyperlink ref="J17" r:id="rId2" xr:uid="{D36DFD4E-D59C-F44C-8877-229B32D670AC}"/>
+    <hyperlink ref="J18" r:id="rId3" xr:uid="{DDF6AE4F-2594-0244-A31F-A1C47578F758}"/>
+    <hyperlink ref="J19" r:id="rId4" xr:uid="{07FE5FA7-DA61-304C-9A4D-FD009C7D60A5}"/>
+    <hyperlink ref="J20" r:id="rId5" xr:uid="{673CEC0C-2F39-0649-8B40-09176D8B58EC}"/>
+    <hyperlink ref="J21" r:id="rId6" xr:uid="{E513A575-9023-F04F-97E3-12AEE599F35C}"/>
+    <hyperlink ref="J22" r:id="rId7" xr:uid="{C690EBA8-F209-DC4A-96C2-57F5E3D75619}"/>
+    <hyperlink ref="J23" r:id="rId8" xr:uid="{D02156BA-1CB8-204F-9A34-58028A2CE4E4}"/>
+    <hyperlink ref="J24" r:id="rId9" xr:uid="{0519A0E1-664F-9E4E-8EDD-BD2FA5560A97}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db/TGN-3201-TainanSightseeing-01.xlsx
+++ b/db/TGN-3201-TainanSightseeing-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-Tainan/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D668460-BCEE-B344-8ADF-E73E870A4272}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417C87B1-B6AB-C148-8137-2D25FA6C1EA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17820" yWindow="4040" windowWidth="32220" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="8200" yWindow="3700" windowWidth="32220" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1227,7 +1227,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F24" sqref="F24"/>

--- a/db/TGN-3201-TainanSightseeing-01.xlsx
+++ b/db/TGN-3201-TainanSightseeing-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-Tainan/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417C87B1-B6AB-C148-8137-2D25FA6C1EA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C895559E-E0EB-1A4B-A9C2-181BB9410F31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="3700" windowWidth="32220" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="18100" yWindow="2500" windowWidth="32220" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="205">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -825,6 +825,38 @@
   </si>
   <si>
     <t>臺南市安平區四草大橋南端步行約100M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://taiwanwarship.tainan.gov.tw/</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>台南市安平區安億路139號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+886-6-295-9728</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>週二至週五 10：00~18：00, 
+週六、週日及國定假日  10:00~20:00, 
+週一公休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣船園區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/ISL-3104-TainanGuide-26.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺灣船長30公尺、寬7.6公尺、主桅高28公尺、重約150 公噸，依日本長崎縣的松浦史料博物館所保存1706年的《唐船之圖》畫卷中〈臺灣船圖〉為藍圖仿製而成，園區以「新船裝老靈魂」的方式重現台灣17世紀海上盛事之景，展出國內第一艘大型仿古船，並結合現代與傳統技術，以空間設計使臺灣船園區具體呈現了臺灣的海洋文化歷史，讓人經歷各種與臺灣船特殊經驗的空間感。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1224,13 +1256,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2006,6 +2038,38 @@
         <v>192</v>
       </c>
     </row>
+    <row r="25" spans="1:10" ht="112">
+      <c r="A25" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
